--- a/biology/Histoire de la zoologie et de la botanique/Henry_Thétard/Henry_Thétard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Thétard/Henry_Thétard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henry_Th%C3%A9tard</t>
+          <t>Henry_Thétard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Thétard (Tours, 28 octobre 1884 - Saint-Germain-en-Laye, 9 août 1968[1]) est un journaliste, dompteur et historien du cirque français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Thétard (Tours, 28 octobre 1884 - Saint-Germain-en-Laye, 9 août 1968) est un journaliste, dompteur et historien du cirque français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henry_Th%C3%A9tard</t>
+          <t>Henry_Thétard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il effectua sa carrière de journaliste de presse écrite au Petit Parisien.
 Il fut dompteur de fauves et directeur d'un zoo temporaire pour l'Exposition coloniale de 1931, dont le succès encourage la création du parc zoologique de Paris au bois de Vincennes. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henry_Th%C3%A9tard</t>
+          <t>Henry_Thétard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-Henry Thétard, Les Dompteurs ou la Ménagerie des origines à nos jours, Gallimard, Paris, 1928.
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Henry Thétard, Les Dompteurs ou la Ménagerie des origines à nos jours, Gallimard, Paris, 1928.
 Henry Thétard, Coulisses et secrets du Cirque, Plon, Paris, 1934.
 Henry Thétard, La merveilleuse histoire du Cirque (en 2 volumes), Éditions Prisma, Paris, 1947.  (L'édition originale est accompagnée d'un 3e volume sur Les Fratellini.)
-Henry Thétard, Des hommes, des bêtes : Le zoo de Lyautey, Paris, La Table Ronde, 1947.
-Articles
-Henry Thétard, "Quels sont les animaux les plus dangereux à dresser ?", l'Illustration, n°5249, 16 octobre 1943.
+Henry Thétard, Des hommes, des bêtes : Le zoo de Lyautey, Paris, La Table Ronde, 1947.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Henry_Thétard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_Th%C3%A9tard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Écrits</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Henry Thétard, "Quels sont les animaux les plus dangereux à dresser ?", l'Illustration, n°5249, 16 octobre 1943.
 Henry Thétard, "Arthur Rimbaud et le cirque", la Revue des deux Mondes, 1er décembre 1948.
 Henry Thétard, "La psychologie animale et les dresseurs", la Revue des Deux Mondes, 1er août 1948.
 Henry Thétard, "L'art secret du dresseur d'animaux", la Revue des Deux Mondes, 1er août 1949.
